--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AV-MCPS_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AV-MCPS_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.506403076569462</v>
+        <v>1.598703456155553</v>
       </c>
       <c r="D2">
-        <v>0.1321518391606054</v>
+        <v>0.1241508837947745</v>
       </c>
       <c r="E2">
         <v>0.7015272229267955</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.8749951814897413</v>
+        <v>0.8888672110933737</v>
       </c>
       <c r="D3">
-        <v>0.3817016747811388</v>
+        <v>0.3836906270191407</v>
       </c>
       <c r="E3">
         <v>0.7015272229267955</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.7243167645423573</v>
+        <v>-0.7815149157178162</v>
       </c>
       <c r="D4">
-        <v>0.4689722008543005</v>
+        <v>0.4428294611047079</v>
       </c>
       <c r="E4">
         <v>0.7015272229267955</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.642876756795171</v>
+        <v>2.854872987114022</v>
       </c>
       <c r="D5">
-        <v>0.008296932651836064</v>
+        <v>0.009209535467352037</v>
       </c>
       <c r="E5">
         <v>0.7015272229267955</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.632879637327167</v>
+        <v>-0.5409637799467033</v>
       </c>
       <c r="D6">
-        <v>0.5268984295782029</v>
+        <v>0.5939683560014086</v>
       </c>
       <c r="E6">
         <v>0.6652595311144236</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.943155824984631</v>
+        <v>-1.460223059283481</v>
       </c>
       <c r="D7">
-        <v>0.05216427403611323</v>
+        <v>0.1583630622201206</v>
       </c>
       <c r="E7">
         <v>0.6652595311144236</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.15938888729474</v>
+        <v>1.170027906105556</v>
       </c>
       <c r="D8">
-        <v>0.246462556736009</v>
+        <v>0.2545093056516181</v>
       </c>
       <c r="E8">
         <v>0.6652595311144236</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.598196391970091</v>
+        <v>-1.568516489262696</v>
       </c>
       <c r="D9">
-        <v>0.1101874359637214</v>
+        <v>0.1310327631987136</v>
       </c>
       <c r="E9">
         <v>0.6800206732901121</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.085321311789312</v>
+        <v>1.946681580761221</v>
       </c>
       <c r="D10">
-        <v>0.03719085375731868</v>
+        <v>0.06445323060372909</v>
       </c>
       <c r="E10">
         <v>0.6800206732901121</v>
@@ -661,7 +661,7 @@
         <v>0.6399413232380591</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>3.080036441311266</v>
+        <v>2.656418361799366</v>
       </c>
       <c r="D11">
-        <v>0.002103323005434588</v>
+        <v>0.01441846804667901</v>
       </c>
       <c r="E11">
         <v>0.7226708311592465</v>
